--- a/medicine/Enfance/Frank_Andriat/Frank_Andriat.xlsx
+++ b/medicine/Enfance/Frank_Andriat/Frank_Andriat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frank Andriat de son vrai nom Frank Goetghebeur, né le 30 mars 1958 à Ixelles, dans la région de Bruxelles, est un écrivain, romancier et enseignant belge connu pour ses livres comme La Remplaçante, Rue Josaphat, Journal de Jamila, Mon pire ami, Tabou, Jolie libraire dans la lumière.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Frank Goetghebeur naît le 30 mars 1958 à Ixelles, une commune bruxelloise[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frank Goetghebeur naît le 30 mars 1958 à Ixelles, une commune bruxelloise.
 En 1973, habitant et étudiant à Schaerbeek, il lance, avec des amis, une revue littéraire nommée Cyclope. En 1976, il publie son premier recueil de poèmes, Oiseaux de sang et commence des études de philologie à l’Université libre de Bruxelles. En 1980, il termine son mémoire de licence portant sur l’œuvre de Jean Muno. Dans les années suivantes, il traduit de nombreux romans de différents auteurs espagnols et argentins. En 1986, il publie Journal de Jamila . 
 En 1992, il écrit, avec des étudiants, un livre sur Jean-Jacques Goldman. En 2001, il publie Vocation Prof, dans lequel il relate son expérience de professeur de français à l'Athénée communal Fernand Blum, école secondaire de Schaerbeek.
 L'écrivain partage sa vie entre l'enseignement et l'écriture de romans et d'essais. Même s'il écrit aussi pour les adultes, Frank Andriat visite toujours les écoles. Frank Andriat est aussi proche de l'écrivain Grégoire Delacourt et ce dernier a d'ailleurs visité les élèves de Frank pour leur parler de ses livres.
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Journal de Jamila (Le Cri, Bruxelles, 1986)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Journal de Jamila (Le Cri, Bruxelles, 1986)
 Mes copains m’appellent Flash (Le Snark, Bruxelles,1992)
 Matilda (Identités-Pré aux Sources, Bruxelles, 1993)
 L’Enfant qui chante (Pré aux Sources, Bruxelles, 1993)
@@ -594,31 +613,167 @@
 Meurtre à la bibliothèque (Mijade, Namur, 2020)
 Rumeurs, tu meurs ! (Mijade, Namur, 2020)
 Les Mardis d’Averell Dubois (Genèse éditions, Paris-Bruxelles, 2020)
-Une île lointaine (Ker éditions, Hévillers, 2023)
-Les Aventures de Bob Tarlouze
-t. 1, Arrête ton baratin ! (Ker éditions, Hévillers, 2013)
+Une île lointaine (Ker éditions, Hévillers, 2023)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les Aventures de Bob Tarlouze</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>t. 1, Arrête ton baratin ! (Ker éditions, Hévillers, 2013)
 t. 2, Mise en scène (Ker éditions, Hévillers, 2014)
 t. 3, Bons baisers de Kaboul (Ker éditions, Hévillers, 2015)
 t. 4, Fais pas l'andouille ! (Ker éditions, Hévillers, 2016)
 t. 5, Un petit pain au chocolat (Ker éditions, Hévillers, 2017)
 t. 6, Le Pote aux roses (Ker éditions, Hévillers, 2018)
-t. 7, Lo tablo le la, Ker éditions, Hévillers, 2019.
-Récits et recueils de nouvelles
-Hirondelles (Pré aux Sources, Bruxelles, 1989)
+t. 7, Lo tablo le la, Ker éditions, Hévillers, 2019.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Récits et recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hirondelles (Pré aux Sources, Bruxelles, 1989)
 La Notification (Bernard Gilson Éditeur, Bruxelles, 2010)
 Rose afghane (récit, Mijade, Namur, 2012)
-Lorsque la vie déraille (nouvelles, Quadrature, Louvain-La-Neuve, 2021)
-Essais
-Jean Muno, la fantaisie du désespoir (Cyclope-Dem, Bruxelles, 1980.)
+Lorsque la vie déraille (nouvelles, Quadrature, Louvain-La-Neuve, 2021)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Essais</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jean Muno, la fantaisie du désespoir (Cyclope-Dem, Bruxelles, 1980.)
 Pour lire la bande dessinée, en collaboration avec Arnaud de la Croix, De Boeck-Duculot, Bruxelles, 1992  (ISBN 2-8041-1528-3).
 Vocation prof (Labor, Bruxelles, 2001 ; réédition chez Erasme en 2008)
 Avec l'Intime (Desclée de Brouwer, Paris, 2009-2010)
 Reçois et marche (Desclée de Brouwer, Paris, 2011)
 Les Profs au feu et l'École au milieu (La Renaissance du livre, Bruxelles, 2013)
 Moi, ministre de l'enseignement (La Renaissance du livre, Bruxelles, 2014)
-Le Mouvement immobile (Marabout, Paris, 2018)
-Poésie
-Oiseaux de sang (Cycope, Bruxelles, 1976)
+Le Mouvement immobile (Marabout, Paris, 2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Frank_Andriat</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Oiseaux de sang (Cycope, Bruxelles, 1976)
 À la source du regard (avec des photos de Marc Sweers, Cycope, Bruxelles, 1976)
 Le Front cassé (Cyclope-Dem, Bruxelles, 1978)
 Tangente tangente (Cyclope-Dem, Bruxelles, 1978)
@@ -629,37 +784,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Frank_Andriat</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Frank_Andriat</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1976 : prix Georges Lockem de l’Académie royale de langue et de littérature françaises de Belgique pour Oiseaux de sang ;
 1980 : prix Constant de Horion pour Jean Muno, la fantaisie du désespoir ;
 1990 : prix Sander Pierron de l’Académie royale de langue et de littérature françaises de Belgique pour Hirondelles ;
 1995 : prix Baron de Thysebaert pour Au bout du monde ;
-2000 : (international) « Honour List »[2] de l' IBBY pour La Remplaçante ;
+2000 : (international) « Honour List » de l' IBBY pour La Remplaçante ;
 2009 : Sélection aux White Ravens 2009 (liste internationale d'ouvrages pour la jeunesse) pour Aurore Barbare ;
 2010 : prix Gilles Nélod de l’Association des Écrivains Belges pour La Notification ;
 2011 : prix Jean Kobs de l’Académie royale de langue et de littérature françaises de Belgique pour Avec l'intime ;
